--- a/Code/Results/Cases/Case_1_139/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_139/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.36718714669412</v>
+        <v>16.6019354869764</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.884618069370791</v>
+        <v>3.467017911033662</v>
       </c>
       <c r="E2">
-        <v>30.5615256480321</v>
+        <v>24.63841689047146</v>
       </c>
       <c r="F2">
-        <v>20.06138106910447</v>
+        <v>20.57066559520825</v>
       </c>
       <c r="G2">
-        <v>2.02869153609451</v>
+        <v>3.588673489366149</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.38816412222621</v>
+        <v>24.9666799838896</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.3698511690083</v>
+        <v>9.896296048513905</v>
       </c>
       <c r="M2">
-        <v>15.2986543082964</v>
+        <v>15.62146801757739</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.96916211261972</v>
+        <v>18.03288912875454</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.07787871748415</v>
+        <v>16.10415831715776</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.802628229135502</v>
+        <v>3.445389423039186</v>
       </c>
       <c r="E3">
-        <v>29.08475771552429</v>
+        <v>24.06936471691901</v>
       </c>
       <c r="F3">
-        <v>18.95778429352767</v>
+        <v>20.43445330180801</v>
       </c>
       <c r="G3">
-        <v>2.035428288418381</v>
+        <v>3.591225691608983</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.17256813257306</v>
+        <v>25.02522303257962</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.71287848591413</v>
+        <v>9.718442191773867</v>
       </c>
       <c r="M3">
-        <v>14.45334398540757</v>
+        <v>15.37279268382949</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.30250029155076</v>
+        <v>18.01100373746687</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.24268222980646</v>
+        <v>15.79031181921266</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.751131100366316</v>
+        <v>3.432085857482968</v>
       </c>
       <c r="E4">
-        <v>28.14049126137705</v>
+        <v>23.71461400061439</v>
       </c>
       <c r="F4">
-        <v>18.27402201851963</v>
+        <v>20.35946225689755</v>
       </c>
       <c r="G4">
-        <v>2.039683471755767</v>
+        <v>3.59287569357571</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.06028160658572</v>
+        <v>25.06957804314576</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.286849813000062</v>
+        <v>9.608000852797932</v>
       </c>
       <c r="M4">
-        <v>13.91032260981373</v>
+        <v>15.21845276225383</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.89994732587561</v>
+        <v>18.00485329689827</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.89141832362996</v>
+        <v>15.66051139723302</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.729877196389667</v>
+        <v>3.426661484244174</v>
       </c>
       <c r="E5">
-        <v>27.74667675088256</v>
+        <v>23.56889865757917</v>
       </c>
       <c r="F5">
-        <v>17.99422238306435</v>
+        <v>20.33110557422922</v>
       </c>
       <c r="G5">
-        <v>2.041448377855308</v>
+        <v>3.593569008129709</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.01947115141404</v>
+        <v>25.08976389421926</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.107604331967039</v>
+        <v>9.562732240965998</v>
       </c>
       <c r="M5">
-        <v>13.68314449769011</v>
+        <v>15.15520354197395</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.73783832540002</v>
+        <v>18.00417668586953</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.83243363951248</v>
+        <v>15.63884794735615</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.726332474979966</v>
+        <v>3.425760669705674</v>
       </c>
       <c r="E6">
-        <v>27.6807531213336</v>
+        <v>23.54463903195578</v>
       </c>
       <c r="F6">
-        <v>17.94770434112308</v>
+        <v>20.32653076639948</v>
       </c>
       <c r="G6">
-        <v>2.041743333093486</v>
+        <v>3.593685398368152</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.01299008044405</v>
+        <v>25.09324310141585</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.081144030841815</v>
+        <v>9.555200989851151</v>
       </c>
       <c r="M6">
-        <v>13.64507069204197</v>
+        <v>15.14468145822749</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.71104413095117</v>
+        <v>18.00417472340259</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.23798908538851</v>
+        <v>15.78856878102499</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.750845518923067</v>
+        <v>3.432012711125546</v>
       </c>
       <c r="E7">
-        <v>28.13521605019496</v>
+        <v>23.71265323212858</v>
       </c>
       <c r="F7">
-        <v>18.27025268406826</v>
+        <v>20.35907087497158</v>
       </c>
       <c r="G7">
-        <v>2.039707147546165</v>
+        <v>3.592884959040727</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.05971133968131</v>
+        <v>25.06984173558011</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.284454711074391</v>
+        <v>9.60739134374748</v>
       </c>
       <c r="M7">
-        <v>13.90728245176417</v>
+        <v>15.2176011147485</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.89775291791869</v>
+        <v>18.0048367686466</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.93168848354091</v>
+        <v>16.43209709355072</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.856600272128174</v>
+        <v>3.459567027874412</v>
       </c>
       <c r="E8">
-        <v>30.06035300070646</v>
+        <v>24.44343153042697</v>
       </c>
       <c r="F8">
-        <v>19.68234711138478</v>
+        <v>20.52192461200129</v>
       </c>
       <c r="G8">
-        <v>2.030990342068504</v>
+        <v>3.58953631655526</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.30959816466396</v>
+        <v>24.9851182466123</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.14802471529223</v>
+        <v>9.835257735287826</v>
       </c>
       <c r="M8">
-        <v>15.0122466166884</v>
+        <v>15.53610386579584</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.73802167776702</v>
+        <v>18.02382963948289</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.90701253356783</v>
+        <v>17.62259153534538</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.053962470442052</v>
+        <v>3.513288019715081</v>
       </c>
       <c r="E9">
-        <v>33.52290480493291</v>
+        <v>25.82601405973585</v>
       </c>
       <c r="F9">
-        <v>22.38930681426556</v>
+        <v>20.90834086720858</v>
       </c>
       <c r="G9">
-        <v>2.014790218100809</v>
+        <v>3.58362455237696</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.96301986668243</v>
+        <v>24.88583304773672</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.66223249272504</v>
+        <v>10.2702221295821</v>
       </c>
       <c r="M9">
-        <v>17.04314749430332</v>
+        <v>16.14497427442528</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.43068386433997</v>
+        <v>18.1189082470885</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.88292838056423</v>
+        <v>18.44611257498727</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.191865973031234</v>
+        <v>3.552398220379946</v>
       </c>
       <c r="E10">
-        <v>35.8604976256689</v>
+        <v>26.80104031113454</v>
       </c>
       <c r="F10">
-        <v>24.57295422315017</v>
+        <v>21.23075955409331</v>
       </c>
       <c r="G10">
-        <v>2.003359076745951</v>
+        <v>3.579675988737898</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.54723868756449</v>
+        <v>24.85377375559928</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.66659718705555</v>
+        <v>10.57991974365259</v>
       </c>
       <c r="M10">
-        <v>18.51865290541749</v>
+        <v>16.57937750623676</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.96984382534714</v>
+        <v>18.22387989354285</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.73672252398002</v>
+        <v>18.80829651811197</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.252897079033831</v>
+        <v>3.570076973713451</v>
       </c>
       <c r="E11">
-        <v>36.87681024978842</v>
+        <v>27.23386635661063</v>
       </c>
       <c r="F11">
-        <v>25.5496112912782</v>
+        <v>21.38521267722587</v>
       </c>
       <c r="G11">
-        <v>1.998243202282803</v>
+        <v>3.577964467457368</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20.83636416817223</v>
+        <v>24.84807448048748</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.10040635640512</v>
+        <v>10.71814911798584</v>
       </c>
       <c r="M11">
-        <v>19.15555551410308</v>
+        <v>16.7735218242447</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.71229869486983</v>
+        <v>18.27917977566029</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.05360862038923</v>
+        <v>18.94355987704277</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.275752566584668</v>
+        <v>3.576752246124429</v>
       </c>
       <c r="E12">
-        <v>37.2547536827195</v>
+        <v>27.39608311991638</v>
       </c>
       <c r="F12">
-        <v>25.91543471325663</v>
+        <v>21.44476512841831</v>
       </c>
       <c r="G12">
-        <v>1.996316446742289</v>
+        <v>3.577328466590015</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>20.94925418243202</v>
+        <v>24.84719278066573</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.26139629500103</v>
+        <v>10.77007118290776</v>
       </c>
       <c r="M12">
-        <v>19.39185404323461</v>
+        <v>16.84648785897968</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.99043898013825</v>
+        <v>18.30119530783939</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.98564643553307</v>
+        <v>18.91451391650973</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.270841749533908</v>
+        <v>3.575315513475266</v>
       </c>
       <c r="E13">
-        <v>37.17366613479079</v>
+        <v>27.36122394839333</v>
       </c>
       <c r="F13">
-        <v>25.83682481515421</v>
+        <v>21.43189300422257</v>
       </c>
       <c r="G13">
-        <v>1.996730967258386</v>
+        <v>3.577464902959844</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>20.92478922650617</v>
+        <v>24.84732592722193</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.22686968919699</v>
+        <v>10.75890824837761</v>
       </c>
       <c r="M13">
-        <v>19.34117920292918</v>
+        <v>16.83079870151249</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.93066849217041</v>
+        <v>18.29640626778269</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.76292140725517</v>
+        <v>18.81946307987323</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.254782592374107</v>
+        <v>3.570626556537842</v>
       </c>
       <c r="E14">
-        <v>36.90804311009524</v>
+        <v>27.24724658126629</v>
       </c>
       <c r="F14">
-        <v>25.57978761936197</v>
+        <v>21.39009108456545</v>
       </c>
       <c r="G14">
-        <v>1.998084485840234</v>
+        <v>3.577911900847634</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20.84558322949769</v>
+        <v>24.84797636986942</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.11371669843812</v>
+        <v>10.72242946844575</v>
       </c>
       <c r="M14">
-        <v>19.17509347659284</v>
+        <v>16.77953614806455</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.73524112813783</v>
+        <v>18.28096953828096</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.62566061845287</v>
+        <v>18.76099309197123</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.244912313175888</v>
+        <v>3.567751832006842</v>
       </c>
       <c r="E15">
-        <v>36.74443751823281</v>
+        <v>27.17720863673543</v>
       </c>
       <c r="F15">
-        <v>25.42182535373652</v>
+        <v>21.36462314530003</v>
       </c>
       <c r="G15">
-        <v>1.998914874726377</v>
+        <v>3.578187275791908</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20.7975118680186</v>
+        <v>24.84854097053139</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.04398064493148</v>
+        <v>10.70002898238425</v>
       </c>
       <c r="M15">
-        <v>19.0727269336383</v>
+        <v>16.74806289686732</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.61514758302235</v>
+        <v>18.2716536922388</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.82622843310628</v>
+        <v>18.42218396831776</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.187842214069452</v>
+        <v>3.551240340729446</v>
       </c>
       <c r="E16">
-        <v>35.79311895624529</v>
+        <v>26.77252587655841</v>
       </c>
       <c r="F16">
-        <v>24.5085596624996</v>
+        <v>21.22081767627184</v>
       </c>
       <c r="G16">
-        <v>2.003694972552088</v>
+        <v>3.57978953952263</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.52881775259923</v>
+        <v>24.8543249279855</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.6377851538885</v>
+        <v>10.57082918926931</v>
       </c>
       <c r="M16">
-        <v>18.47634362779833</v>
+        <v>16.56661530026283</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.92089506823324</v>
+        <v>18.2204169355905</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.32429554434312</v>
+        <v>18.21107546496149</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.152387167363205</v>
+        <v>3.541080015173833</v>
       </c>
       <c r="E17">
-        <v>35.19734649481923</v>
+        <v>26.5214149219175</v>
       </c>
       <c r="F17">
-        <v>23.9410397589088</v>
+        <v>21.13455306236944</v>
       </c>
       <c r="G17">
-        <v>2.006647884449202</v>
+        <v>3.580794124005005</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.37000027163239</v>
+        <v>24.86014831922439</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.38270897061425</v>
+        <v>10.49085986802866</v>
       </c>
       <c r="M17">
-        <v>18.1017282465539</v>
+        <v>16.45437595576641</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.48951212724085</v>
+        <v>18.19091114132976</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.03135191517664</v>
+        <v>18.08848573462144</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.131834684109865</v>
+        <v>3.535225642669552</v>
       </c>
       <c r="E18">
-        <v>34.85024960836726</v>
+        <v>26.37598154472654</v>
       </c>
       <c r="F18">
-        <v>23.61192236013673</v>
+        <v>21.08567201069607</v>
       </c>
       <c r="G18">
-        <v>2.008354350695917</v>
+        <v>3.581379910642515</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.28084935686808</v>
+        <v>24.8643341791642</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.23382096617672</v>
+        <v>10.44461615254343</v>
       </c>
       <c r="M18">
-        <v>17.8830262919112</v>
+        <v>16.3894954780524</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.23934646080725</v>
+        <v>18.17465140931549</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.93143571731474</v>
+        <v>18.04678194344751</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.124848911588745</v>
+        <v>3.533241757134594</v>
       </c>
       <c r="E19">
-        <v>34.73197364418755</v>
+        <v>26.32657295042302</v>
       </c>
       <c r="F19">
-        <v>23.50002396323912</v>
+        <v>21.06924977148116</v>
       </c>
       <c r="G19">
-        <v>2.008933556249282</v>
+        <v>3.581579619833784</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.25104019113527</v>
+        <v>24.8658951082847</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.1830355158671</v>
+        <v>10.42891760237756</v>
       </c>
       <c r="M19">
-        <v>17.80842081388077</v>
+        <v>16.36747419682224</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.15429070540614</v>
+        <v>18.169268583802</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.37816616447092</v>
+        <v>18.23366972294822</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.156178030052087</v>
+        <v>3.542162700220777</v>
       </c>
       <c r="E20">
-        <v>35.26122654277793</v>
+        <v>26.54825078943037</v>
       </c>
       <c r="F20">
-        <v>24.00173162408959</v>
+        <v>21.14366028522222</v>
       </c>
       <c r="G20">
-        <v>2.006332722029716</v>
+        <v>3.580686359232969</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.38667896663496</v>
+        <v>24.85944184973661</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.4100871252745</v>
+        <v>10.49939865476401</v>
       </c>
       <c r="M20">
-        <v>18.14194095326758</v>
+        <v>16.46635788975788</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.53564464537632</v>
+        <v>18.19397854486008</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.82851510992634</v>
+        <v>18.84743378554712</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.259506570885721</v>
+        <v>3.572004364788392</v>
       </c>
       <c r="E21">
-        <v>36.98625159413434</v>
+        <v>27.28077131788828</v>
       </c>
       <c r="F21">
-        <v>25.65539373296981</v>
+        <v>21.40234088428611</v>
       </c>
       <c r="G21">
-        <v>1.997686652651326</v>
+        <v>3.577780278445693</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20.86875522419182</v>
+        <v>24.84775068961532</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.14704130443679</v>
+        <v>10.73315594777086</v>
       </c>
       <c r="M21">
-        <v>19.22400895530262</v>
+        <v>16.79460860281639</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.79272365273401</v>
+        <v>18.2854746104472</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.75666704172255</v>
+        <v>19.2375218490617</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.325544034942345</v>
+        <v>3.591393780604177</v>
       </c>
       <c r="E22">
-        <v>38.07332335020592</v>
+        <v>27.74963534859696</v>
       </c>
       <c r="F22">
-        <v>26.71282310182443</v>
+        <v>21.57758054989772</v>
       </c>
       <c r="G22">
-        <v>1.992096392211055</v>
+        <v>3.575951573003269</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21.20368115468806</v>
+        <v>24.8475489405075</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.60956031266337</v>
+        <v>10.88345052058663</v>
       </c>
       <c r="M22">
-        <v>19.90277106609617</v>
+        <v>17.00589779747967</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.59681304652235</v>
+        <v>18.35152998431456</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.25757968765553</v>
+        <v>19.03036482295195</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.290438303875697</v>
+        <v>3.581056713469481</v>
       </c>
       <c r="E23">
-        <v>37.49686163643171</v>
+        <v>27.50034239475283</v>
       </c>
       <c r="F23">
-        <v>26.15054802933893</v>
+        <v>21.48350543697156</v>
       </c>
       <c r="G23">
-        <v>1.995075052920649</v>
+        <v>3.576921150118744</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.02309406112123</v>
+        <v>24.84697658324456</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.36444221670412</v>
+        <v>10.80347521185605</v>
       </c>
       <c r="M23">
-        <v>19.54308595352889</v>
+        <v>16.89344238404132</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.1692141563607</v>
+        <v>18.31570656121698</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.35382489036052</v>
+        <v>18.22345865327844</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.154464706274557</v>
+        <v>3.541673258752723</v>
       </c>
       <c r="E24">
-        <v>35.23236062552826</v>
+        <v>26.53612160415645</v>
       </c>
       <c r="F24">
-        <v>23.97430169233055</v>
+        <v>21.13954068269129</v>
       </c>
       <c r="G24">
-        <v>2.006475179437511</v>
+        <v>3.580735054021277</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.37913181859026</v>
+        <v>24.85975863444748</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.39771644531411</v>
+        <v>10.49553910179103</v>
       </c>
       <c r="M24">
-        <v>18.12377116640102</v>
+        <v>16.4609419514893</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.51479486255836</v>
+        <v>18.19258957939146</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.13912366617636</v>
+        <v>17.30901201243531</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.001754351202388</v>
+        <v>3.498805887710879</v>
       </c>
       <c r="E25">
-        <v>32.6214952143288</v>
+        <v>25.45846678685344</v>
       </c>
       <c r="F25">
-        <v>21.66524508677546</v>
+        <v>20.79685311673293</v>
       </c>
       <c r="G25">
-        <v>2.019084393051116</v>
+        <v>3.585154189114408</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.7682424012873</v>
+        <v>24.90551783984371</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.27169509606</v>
+        <v>10.15410349878396</v>
       </c>
       <c r="M25">
-        <v>16.47204743559901</v>
+        <v>15.98229517787934</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.96909381497039</v>
+        <v>18.08700041833216</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_139/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_139/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.6019354869764</v>
+        <v>20.36718714669411</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.467017911033662</v>
+        <v>2.884618069370825</v>
       </c>
       <c r="E2">
-        <v>24.63841689047146</v>
+        <v>30.56152564803211</v>
       </c>
       <c r="F2">
-        <v>20.57066559520825</v>
+        <v>20.06138106910448</v>
       </c>
       <c r="G2">
-        <v>3.588673489366149</v>
+        <v>2.02869153609451</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.9666799838896</v>
+        <v>19.38816412222617</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.896296048513905</v>
+        <v>10.36985116900822</v>
       </c>
       <c r="M2">
-        <v>15.62146801757739</v>
+        <v>15.29865430829641</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.03288912875454</v>
+        <v>14.96916211261975</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.10415831715776</v>
+        <v>19.07787871748415</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.445389423039186</v>
+        <v>2.802628229135546</v>
       </c>
       <c r="E3">
-        <v>24.06936471691901</v>
+        <v>29.08475771552436</v>
       </c>
       <c r="F3">
-        <v>20.43445330180801</v>
+        <v>18.95778429352766</v>
       </c>
       <c r="G3">
-        <v>3.591225691608983</v>
+        <v>2.03542828841838</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.02522303257962</v>
+        <v>19.17256813257308</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.718442191773867</v>
+        <v>9.712878485914137</v>
       </c>
       <c r="M3">
-        <v>15.37279268382949</v>
+        <v>14.45334398540758</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.01100373746687</v>
+        <v>14.30250029155075</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.79031181921266</v>
+        <v>18.24268222980647</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.432085857482968</v>
+        <v>2.75113110036631</v>
       </c>
       <c r="E4">
-        <v>23.71461400061439</v>
+        <v>28.14049126137697</v>
       </c>
       <c r="F4">
-        <v>20.35946225689755</v>
+        <v>18.27402201851965</v>
       </c>
       <c r="G4">
-        <v>3.59287569357571</v>
+        <v>2.039683471755766</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.06957804314576</v>
+        <v>19.06028160658568</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.608000852797932</v>
+        <v>9.286849813000043</v>
       </c>
       <c r="M4">
-        <v>15.21845276225383</v>
+        <v>13.91032260981373</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.00485329689827</v>
+        <v>13.89994732587564</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.66051139723302</v>
+        <v>17.89141832362991</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.426661484244174</v>
+        <v>2.72987719638956</v>
       </c>
       <c r="E5">
-        <v>23.56889865757917</v>
+        <v>27.74667675088257</v>
       </c>
       <c r="F5">
-        <v>20.33110557422922</v>
+        <v>17.99422238306436</v>
       </c>
       <c r="G5">
-        <v>3.593569008129709</v>
+        <v>2.041448377855307</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.08976389421926</v>
+        <v>19.01947115141403</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.562732240965998</v>
+        <v>9.107604331967018</v>
       </c>
       <c r="M5">
-        <v>15.15520354197395</v>
+        <v>13.68314449769007</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.00417668586953</v>
+        <v>13.73783832540001</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.63884794735615</v>
+        <v>17.83243363951251</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.425760669705674</v>
+        <v>2.726332474980067</v>
       </c>
       <c r="E6">
-        <v>23.54463903195578</v>
+        <v>27.68075312133374</v>
       </c>
       <c r="F6">
-        <v>20.32653076639948</v>
+        <v>17.94770434112304</v>
       </c>
       <c r="G6">
-        <v>3.593685398368152</v>
+        <v>2.041743333093486</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.09324310141585</v>
+        <v>19.01299008044408</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.555200989851151</v>
+        <v>9.081144030841816</v>
       </c>
       <c r="M6">
-        <v>15.14468145822749</v>
+        <v>13.64507069204199</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.00417472340259</v>
+        <v>13.71104413095115</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.78856878102499</v>
+        <v>18.23798908538851</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.432012711125546</v>
+        <v>2.750845518923128</v>
       </c>
       <c r="E7">
-        <v>23.71265323212858</v>
+        <v>28.13521605019504</v>
       </c>
       <c r="F7">
-        <v>20.35907087497158</v>
+        <v>18.27025268406828</v>
       </c>
       <c r="G7">
-        <v>3.592884959040727</v>
+        <v>2.039707147546165</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.06984173558011</v>
+        <v>19.05971133968139</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.60739134374748</v>
+        <v>9.2844547110744</v>
       </c>
       <c r="M7">
-        <v>15.2176011147485</v>
+        <v>13.90728245176417</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.0048367686466</v>
+        <v>13.89775291791871</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.43209709355072</v>
+        <v>19.93168848354095</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.459567027874412</v>
+        <v>2.856600272128317</v>
       </c>
       <c r="E8">
-        <v>24.44343153042697</v>
+        <v>30.06035300070641</v>
       </c>
       <c r="F8">
-        <v>20.52192461200129</v>
+        <v>19.68234711138475</v>
       </c>
       <c r="G8">
-        <v>3.58953631655526</v>
+        <v>2.030990342068772</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.9851182466123</v>
+        <v>19.30959816466395</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.835257735287826</v>
+        <v>10.14802471529221</v>
       </c>
       <c r="M8">
-        <v>15.53610386579584</v>
+        <v>15.01224661668841</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.02382963948289</v>
+        <v>14.73802167776704</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.62259153534538</v>
+        <v>22.90701253356781</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.513288019715081</v>
+        <v>3.053962470442145</v>
       </c>
       <c r="E9">
-        <v>25.82601405973585</v>
+        <v>33.52290480493282</v>
       </c>
       <c r="F9">
-        <v>20.90834086720858</v>
+        <v>22.38930681426555</v>
       </c>
       <c r="G9">
-        <v>3.58362455237696</v>
+        <v>2.014790218100807</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.88583304773672</v>
+        <v>19.96301986668233</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.2702221295821</v>
+        <v>11.66223249272495</v>
       </c>
       <c r="M9">
-        <v>16.14497427442528</v>
+        <v>17.04314749430329</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.1189082470885</v>
+        <v>16.43068386433998</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.44611257498727</v>
+        <v>24.8829283805642</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.552398220379946</v>
+        <v>3.191865973031321</v>
       </c>
       <c r="E10">
-        <v>26.80104031113454</v>
+        <v>35.86049762566903</v>
       </c>
       <c r="F10">
-        <v>21.23075955409331</v>
+        <v>24.57295422315022</v>
       </c>
       <c r="G10">
-        <v>3.579675988737898</v>
+        <v>2.003359076745682</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>24.85377375559928</v>
+        <v>20.54723868756457</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.57991974365259</v>
+        <v>12.66659718705558</v>
       </c>
       <c r="M10">
-        <v>16.57937750623676</v>
+        <v>18.51865290541751</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.22387989354285</v>
+        <v>17.96984382534719</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.80829651811197</v>
+        <v>25.73672252398001</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.570076973713451</v>
+        <v>3.252897079033864</v>
       </c>
       <c r="E11">
-        <v>27.23386635661063</v>
+        <v>36.87681024978832</v>
       </c>
       <c r="F11">
-        <v>21.38521267722587</v>
+        <v>25.54961129127819</v>
       </c>
       <c r="G11">
-        <v>3.577964467457368</v>
+        <v>1.998243202282802</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>24.84807448048748</v>
+        <v>20.83636416817216</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.71814911798584</v>
+        <v>13.10040635640511</v>
       </c>
       <c r="M11">
-        <v>16.7735218242447</v>
+        <v>19.15555551410305</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.27917977566029</v>
+        <v>18.71229869486982</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.94355987704277</v>
+        <v>26.05360862038928</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.576752246124429</v>
+        <v>3.275752566584732</v>
       </c>
       <c r="E12">
-        <v>27.39608311991638</v>
+        <v>37.25475368271947</v>
       </c>
       <c r="F12">
-        <v>21.44476512841831</v>
+        <v>25.91543471325666</v>
       </c>
       <c r="G12">
-        <v>3.577328466590015</v>
+        <v>1.996316446742289</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.84719278066573</v>
+        <v>20.94925418243199</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.77007118290776</v>
+        <v>13.26139629500103</v>
       </c>
       <c r="M12">
-        <v>16.84648785897968</v>
+        <v>19.39185404323463</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.30119530783939</v>
+        <v>18.99043898013827</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.91451391650973</v>
+        <v>25.98564643553307</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.575315513475266</v>
+        <v>3.27084174953388</v>
       </c>
       <c r="E13">
-        <v>27.36122394839333</v>
+        <v>37.17366613479073</v>
       </c>
       <c r="F13">
-        <v>21.43189300422257</v>
+        <v>25.83682481515423</v>
       </c>
       <c r="G13">
-        <v>3.577464902959844</v>
+        <v>1.996730967258388</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.84732592722193</v>
+        <v>20.9247892265061</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.75890824837761</v>
+        <v>13.22686968919699</v>
       </c>
       <c r="M13">
-        <v>16.83079870151249</v>
+        <v>19.34117920292918</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.29640626778269</v>
+        <v>18.93066849217044</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.81946307987323</v>
+        <v>25.76292140725515</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.570626556537842</v>
+        <v>3.254782592374049</v>
       </c>
       <c r="E14">
-        <v>27.24724658126629</v>
+        <v>36.90804311009513</v>
       </c>
       <c r="F14">
-        <v>21.39009108456545</v>
+        <v>25.57978761936196</v>
       </c>
       <c r="G14">
-        <v>3.577911900847634</v>
+        <v>1.998084485840236</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24.84797636986942</v>
+        <v>20.84558322949766</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.72242946844575</v>
+        <v>13.11371669843814</v>
       </c>
       <c r="M14">
-        <v>16.77953614806455</v>
+        <v>19.17509347659281</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.28096953828096</v>
+        <v>18.73524112813782</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.76099309197123</v>
+        <v>25.62566061845282</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.567751832006842</v>
+        <v>3.244912313175908</v>
       </c>
       <c r="E15">
-        <v>27.17720863673543</v>
+        <v>36.74443751823276</v>
       </c>
       <c r="F15">
-        <v>21.36462314530003</v>
+        <v>25.42182535373654</v>
       </c>
       <c r="G15">
-        <v>3.578187275791908</v>
+        <v>1.998914874726509</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>24.84854097053139</v>
+        <v>20.79751186801858</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.70002898238425</v>
+        <v>13.04398064493144</v>
       </c>
       <c r="M15">
-        <v>16.74806289686732</v>
+        <v>19.07272693363825</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.2716536922388</v>
+        <v>18.61514758302235</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.42218396831776</v>
+        <v>24.82622843310628</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.551240340729446</v>
+        <v>3.187842214069539</v>
       </c>
       <c r="E16">
-        <v>26.77252587655841</v>
+        <v>35.79311895624519</v>
       </c>
       <c r="F16">
-        <v>21.22081767627184</v>
+        <v>24.5085596624996</v>
       </c>
       <c r="G16">
-        <v>3.57978953952263</v>
+        <v>2.003694972551954</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24.8543249279855</v>
+        <v>20.52881775259919</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.57082918926931</v>
+        <v>12.63778515388846</v>
       </c>
       <c r="M16">
-        <v>16.56661530026283</v>
+        <v>18.4763436277983</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.2204169355905</v>
+        <v>17.92089506823321</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.21107546496149</v>
+        <v>24.32429554434315</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.541080015173833</v>
+        <v>3.152387167363233</v>
       </c>
       <c r="E17">
-        <v>26.5214149219175</v>
+        <v>35.19734649481936</v>
       </c>
       <c r="F17">
-        <v>21.13455306236944</v>
+        <v>23.94103975890881</v>
       </c>
       <c r="G17">
-        <v>3.580794124005005</v>
+        <v>2.006647884449203</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>24.86014831922439</v>
+        <v>20.37000027163244</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.49085986802866</v>
+        <v>12.38270897061424</v>
       </c>
       <c r="M17">
-        <v>16.45437595576641</v>
+        <v>18.10172824655393</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.19091114132976</v>
+        <v>17.48951212724083</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.08848573462144</v>
+        <v>24.03135191517666</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.535225642669552</v>
+        <v>3.131834684109859</v>
       </c>
       <c r="E18">
-        <v>26.37598154472654</v>
+        <v>34.85024960836723</v>
       </c>
       <c r="F18">
-        <v>21.08567201069607</v>
+        <v>23.6119223601367</v>
       </c>
       <c r="G18">
-        <v>3.581379910642515</v>
+        <v>2.008354350696052</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>24.8643341791642</v>
+        <v>20.28084935686808</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.44461615254343</v>
+        <v>12.2338209661767</v>
       </c>
       <c r="M18">
-        <v>16.3894954780524</v>
+        <v>17.8830262919112</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.17465140931549</v>
+        <v>17.23934646080723</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.04678194344751</v>
+        <v>23.93143571731471</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.533241757134594</v>
+        <v>3.124848911588697</v>
       </c>
       <c r="E19">
-        <v>26.32657295042302</v>
+        <v>34.73197364418761</v>
       </c>
       <c r="F19">
-        <v>21.06924977148116</v>
+        <v>23.50002396323915</v>
       </c>
       <c r="G19">
-        <v>3.581579619833784</v>
+        <v>2.00893355624942</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>24.8658951082847</v>
+        <v>20.2510401911353</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.42891760237756</v>
+        <v>12.18303551586704</v>
       </c>
       <c r="M19">
-        <v>16.36747419682224</v>
+        <v>17.8084208138807</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.169268583802</v>
+        <v>17.15429070540617</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.23366972294822</v>
+        <v>24.37816616447094</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.542162700220777</v>
+        <v>3.156178030052073</v>
       </c>
       <c r="E20">
-        <v>26.54825078943037</v>
+        <v>35.26122654277792</v>
       </c>
       <c r="F20">
-        <v>21.14366028522222</v>
+        <v>24.00173162408958</v>
       </c>
       <c r="G20">
-        <v>3.580686359232969</v>
+        <v>2.006332722029848</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.85944184973661</v>
+        <v>20.38667896663497</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.49939865476401</v>
+        <v>12.41008712527454</v>
       </c>
       <c r="M20">
-        <v>16.46635788975788</v>
+        <v>18.1419409532676</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.19397854486008</v>
+        <v>17.53564464537633</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.84743378554712</v>
+        <v>25.82851510992635</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.572004364788392</v>
+        <v>3.259506570885623</v>
       </c>
       <c r="E21">
-        <v>27.28077131788828</v>
+        <v>36.98625159413433</v>
       </c>
       <c r="F21">
-        <v>21.40234088428611</v>
+        <v>25.65539373296971</v>
       </c>
       <c r="G21">
-        <v>3.577780278445693</v>
+        <v>1.997686652651323</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.84775068961532</v>
+        <v>20.86875522419186</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.73315594777086</v>
+        <v>13.14704130443677</v>
       </c>
       <c r="M21">
-        <v>16.79460860281639</v>
+        <v>19.22400895530262</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.2854746104472</v>
+        <v>18.79272365273396</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.2375218490617</v>
+        <v>26.75666704172252</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.591393780604177</v>
+        <v>3.32554403494239</v>
       </c>
       <c r="E22">
-        <v>27.74963534859696</v>
+        <v>38.07332335020578</v>
       </c>
       <c r="F22">
-        <v>21.57758054989772</v>
+        <v>26.71282310182443</v>
       </c>
       <c r="G22">
-        <v>3.575951573003269</v>
+        <v>1.992096392210923</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.8475489405075</v>
+        <v>21.20368115468795</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.88345052058663</v>
+        <v>13.60956031266333</v>
       </c>
       <c r="M22">
-        <v>17.00589779747967</v>
+        <v>19.90277106609615</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.35152998431456</v>
+        <v>19.59681304652234</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.03036482295195</v>
+        <v>26.2575796876555</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.581056713469481</v>
+        <v>3.290438303875697</v>
       </c>
       <c r="E23">
-        <v>27.50034239475283</v>
+        <v>37.49686163643175</v>
       </c>
       <c r="F23">
-        <v>21.48350543697156</v>
+        <v>26.15054802933895</v>
       </c>
       <c r="G23">
-        <v>3.576921150118744</v>
+        <v>1.995075052920649</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.84697658324456</v>
+        <v>21.02309406112123</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.80347521185605</v>
+        <v>13.3644422167041</v>
       </c>
       <c r="M23">
-        <v>16.89344238404132</v>
+        <v>19.54308595352886</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.31570656121698</v>
+        <v>19.16921415636072</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.22345865327844</v>
+        <v>24.3538248903605</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.541673258752723</v>
+        <v>3.154464706274509</v>
       </c>
       <c r="E24">
-        <v>26.53612160415645</v>
+        <v>35.23236062552819</v>
       </c>
       <c r="F24">
-        <v>21.13954068269129</v>
+        <v>23.97430169233056</v>
       </c>
       <c r="G24">
-        <v>3.580735054021277</v>
+        <v>2.006475179437509</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>24.85975863444748</v>
+        <v>20.37913181859021</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.49553910179103</v>
+        <v>12.39771644531408</v>
       </c>
       <c r="M24">
-        <v>16.4609419514893</v>
+        <v>18.12377116640097</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.19258957939146</v>
+        <v>17.51479486255836</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.30901201243531</v>
+        <v>22.13912366617638</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.498805887710879</v>
+        <v>3.001754351202394</v>
       </c>
       <c r="E25">
-        <v>25.45846678685344</v>
+        <v>32.6214952143289</v>
       </c>
       <c r="F25">
-        <v>20.79685311673293</v>
+        <v>21.66524508677545</v>
       </c>
       <c r="G25">
-        <v>3.585154189114408</v>
+        <v>2.019084393051249</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.90551783984371</v>
+        <v>19.76824240128745</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.15410349878396</v>
+        <v>11.27169509606005</v>
       </c>
       <c r="M25">
-        <v>15.98229517787934</v>
+        <v>16.47204743559902</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.08700041833216</v>
+        <v>15.96909381497038</v>
       </c>
     </row>
   </sheetData>
